--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Itgb8</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,34 +546,34 @@
         <v>0.7141772151898734</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.237840333333334</v>
+        <v>0.027767</v>
       </c>
       <c r="N2">
-        <v>12.713521</v>
+        <v>0.083301</v>
       </c>
       <c r="O2">
-        <v>0.4475167411500002</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="P2">
-        <v>0.4475167411500002</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="Q2">
-        <v>0.08368463306233333</v>
+        <v>0.0005483149490000001</v>
       </c>
       <c r="R2">
-        <v>0.7531616975609999</v>
+        <v>0.004934834541</v>
       </c>
       <c r="S2">
-        <v>0.3196062599453546</v>
+        <v>0.002087988354573309</v>
       </c>
       <c r="T2">
-        <v>0.3196062599453546</v>
+        <v>0.002087988354573309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -611,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.231839666666666</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N3">
-        <v>15.695519</v>
+        <v>12.713521</v>
       </c>
       <c r="O3">
-        <v>0.5524832588499997</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="P3">
-        <v>0.5524832588499998</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="Q3">
-        <v>0.1033131378976666</v>
+        <v>0.08368463306233334</v>
       </c>
       <c r="R3">
-        <v>0.9298182410789998</v>
+        <v>0.753161697561</v>
       </c>
       <c r="S3">
-        <v>0.3945709552445188</v>
+        <v>0.3186718502013567</v>
       </c>
       <c r="T3">
-        <v>0.3945709552445189</v>
+        <v>0.3186718502013567</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -655,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.007903</v>
+        <v>0.019747</v>
       </c>
       <c r="H4">
-        <v>0.023709</v>
+        <v>0.059241</v>
       </c>
       <c r="I4">
-        <v>0.2858227848101266</v>
+        <v>0.7141772151898734</v>
       </c>
       <c r="J4">
-        <v>0.2858227848101266</v>
+        <v>0.7141772151898734</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.237840333333334</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N4">
-        <v>12.713521</v>
+        <v>15.695519</v>
       </c>
       <c r="O4">
-        <v>0.4475167411500002</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="P4">
-        <v>0.4475167411500002</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="Q4">
-        <v>0.03349165215433333</v>
+        <v>0.1033131378976667</v>
       </c>
       <c r="R4">
-        <v>0.301424869389</v>
+        <v>0.9298182410790001</v>
       </c>
       <c r="S4">
-        <v>0.1279104812046457</v>
+        <v>0.3934173766339433</v>
       </c>
       <c r="T4">
-        <v>0.1279104812046457</v>
+        <v>0.3934173766339433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,34 +732,158 @@
         <v>0.2858227848101266</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.027767</v>
+      </c>
+      <c r="N5">
+        <v>0.083301</v>
+      </c>
+      <c r="O5">
+        <v>0.002923627791763407</v>
+      </c>
+      <c r="P5">
+        <v>0.002923627791763407</v>
+      </c>
+      <c r="Q5">
+        <v>0.000219442601</v>
+      </c>
+      <c r="R5">
+        <v>0.001974983409</v>
+      </c>
+      <c r="S5">
+        <v>0.0008356394371900979</v>
+      </c>
+      <c r="T5">
+        <v>0.000835639437190098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.007903</v>
+      </c>
+      <c r="H6">
+        <v>0.023709</v>
+      </c>
+      <c r="I6">
+        <v>0.2858227848101266</v>
+      </c>
+      <c r="J6">
+        <v>0.2858227848101266</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>5.231839666666666</v>
-      </c>
-      <c r="N5">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.237840333333334</v>
+      </c>
+      <c r="N6">
+        <v>12.713521</v>
+      </c>
+      <c r="O6">
+        <v>0.4462083687682946</v>
+      </c>
+      <c r="P6">
+        <v>0.4462083687682946</v>
+      </c>
+      <c r="Q6">
+        <v>0.03349165215433333</v>
+      </c>
+      <c r="R6">
+        <v>0.301424869389</v>
+      </c>
+      <c r="S6">
+        <v>0.1275365185669379</v>
+      </c>
+      <c r="T6">
+        <v>0.1275365185669379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.007903</v>
+      </c>
+      <c r="H7">
+        <v>0.023709</v>
+      </c>
+      <c r="I7">
+        <v>0.2858227848101266</v>
+      </c>
+      <c r="J7">
+        <v>0.2858227848101266</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.231839666666667</v>
+      </c>
+      <c r="N7">
         <v>15.695519</v>
       </c>
-      <c r="O5">
-        <v>0.5524832588499997</v>
-      </c>
-      <c r="P5">
-        <v>0.5524832588499998</v>
-      </c>
-      <c r="Q5">
-        <v>0.04134722888566666</v>
-      </c>
-      <c r="R5">
-        <v>0.3721250599709999</v>
-      </c>
-      <c r="S5">
-        <v>0.1579123036054809</v>
-      </c>
-      <c r="T5">
-        <v>0.157912303605481</v>
+      <c r="O7">
+        <v>0.5508680034399419</v>
+      </c>
+      <c r="P7">
+        <v>0.5508680034399419</v>
+      </c>
+      <c r="Q7">
+        <v>0.04134722888566667</v>
+      </c>
+      <c r="R7">
+        <v>0.372125059971</v>
+      </c>
+      <c r="S7">
+        <v>0.1574506268059986</v>
+      </c>
+      <c r="T7">
+        <v>0.1574506268059986</v>
       </c>
     </row>
   </sheetData>
